--- a/db/DB_스키마_최종.xlsx
+++ b/db/DB_스키마_최종.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\해커톤~1\회의록~1\3주차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\59-project\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="162">
   <si>
     <t>int / auto / pk / unsign</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>char(11) / not null</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(20) / not null / uniqe</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -664,6 +660,14 @@
   </si>
   <si>
     <t>reservation_date(예약날짜)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(11) / not null -&gt; null</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -900,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1036,32 +1040,38 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2501,7 +2511,7 @@
   <dimension ref="B2:T69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2527,230 +2537,233 @@
   <sheetData>
     <row r="2" spans="5:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="5:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="J3" s="46"/>
-      <c r="L3" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="46"/>
+      <c r="I3" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="L3" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="5:16" x14ac:dyDescent="0.3">
       <c r="I4" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="50">
+        <v>11</v>
+      </c>
+      <c r="O4" s="46">
         <v>1</v>
       </c>
-      <c r="P4" s="49" t="s">
-        <v>105</v>
+      <c r="P4" s="45" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="5:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I5" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" s="26" t="str">
         <f>I4</f>
         <v>store_num</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="O5" s="52">
+        <v>129</v>
+      </c>
+      <c r="O5" s="48">
         <v>2</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="5:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="48"/>
+      <c r="E6" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="51"/>
       <c r="I6" s="21" t="str">
         <f>E7</f>
         <v>cate_num</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="51">
+        <v>27</v>
+      </c>
+      <c r="O6" s="47">
         <v>3</v>
       </c>
       <c r="P6" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E7" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="L7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="5:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="5:16" x14ac:dyDescent="0.3">
       <c r="I9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="L9" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="5:16" x14ac:dyDescent="0.3">
       <c r="I10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M10" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.3">
       <c r="I11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.3">
       <c r="I12" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="5:16" x14ac:dyDescent="0.3">
       <c r="I13" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="5:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L14" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="M13" s="37" t="s">
+      <c r="M14" s="38" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="5:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I14" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="M14" s="38" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.3">
       <c r="I15" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="5:16" x14ac:dyDescent="0.3">
       <c r="H16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I16" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="5:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I17" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="5:20" x14ac:dyDescent="0.3">
@@ -2761,7 +2774,7 @@
       <c r="I19" s="35"/>
       <c r="J19" s="32"/>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="5:20" x14ac:dyDescent="0.3">
@@ -2770,62 +2783,62 @@
     </row>
     <row r="25" spans="5:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="5:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="46"/>
-      <c r="H26" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="I26" s="48"/>
-      <c r="P26" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q26" s="46"/>
-      <c r="S26" s="50">
+      <c r="E26" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="53"/>
+      <c r="H26" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26" s="51"/>
+      <c r="P26" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q26" s="53"/>
+      <c r="S26" s="46">
         <v>0</v>
       </c>
-      <c r="T26" s="49" t="s">
-        <v>99</v>
+      <c r="T26" s="45" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E27" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="M27" s="46"/>
+      <c r="L27" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="M27" s="53"/>
       <c r="P27" s="33" t="str">
         <f>L28</f>
         <v>sub_num</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="S27" s="52">
+        <v>43</v>
+      </c>
+      <c r="S27" s="48">
         <v>1</v>
       </c>
       <c r="T27" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E28" s="44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>1</v>
@@ -2834,30 +2847,30 @@
         <v>5</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="P28" s="53" t="s">
-        <v>157</v>
+        <v>87</v>
+      </c>
+      <c r="P28" s="49" t="s">
+        <v>156</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="S28" s="52">
+        <v>89</v>
+      </c>
+      <c r="S28" s="48">
         <v>2</v>
       </c>
       <c r="T28" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E29" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>2</v>
@@ -2870,224 +2883,224 @@
         <v>user_num</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P29" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q29" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="Q29" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="S29" s="52">
+      <c r="S29" s="48">
         <v>3</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E30" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L30" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="S30" s="52">
+        <v>108</v>
+      </c>
+      <c r="S30" s="48">
         <v>4</v>
       </c>
       <c r="T30" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="5:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E31" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P31" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q31" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="S31" s="51">
+        <v>94</v>
+      </c>
+      <c r="S31" s="47">
         <v>9</v>
       </c>
       <c r="T31" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="5:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E32" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="H32" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="46">
+        <v>1</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="47">
+        <v>2</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="F34" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="50">
-        <v>1</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L33" s="4" t="s">
+      <c r="I34" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="51">
-        <v>2</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="M34" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H35" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="L36" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="L37" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L38" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M38" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N38" t="s">
         <v>91</v>
       </c>
-      <c r="N38" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="39" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I39" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="J39" s="48"/>
+      <c r="I39" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="J39" s="51"/>
       <c r="L39" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I40" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I41" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
@@ -3096,110 +3109,110 @@
         <v>user_num</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L42" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="M42" s="48"/>
+        <v>25</v>
+      </c>
+      <c r="L42" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="M42" s="51"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I43" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L43" s="20" t="str">
         <f>H27</f>
         <v>user_num</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I44" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L44" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I46" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="6:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="6:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F56" t="s">
-        <v>111</v>
-      </c>
-      <c r="I56" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="J56" s="48"/>
+        <v>110</v>
+      </c>
+      <c r="I56" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="J56" s="51"/>
     </row>
     <row r="57" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F57" s="47" t="s">
+      <c r="F57" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="51"/>
+      <c r="I57" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G57" s="48"/>
-      <c r="I57" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J57" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G58" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="I58" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J58" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="59" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F59" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="I59" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="6:10" x14ac:dyDescent="0.3">
@@ -3235,17 +3248,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="I39:J39"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E26:F26"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="I39:J39"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/DB_스키마_최종.xlsx
+++ b/db/DB_스키마_최종.xlsx
@@ -81,10 +81,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">date / defult now() </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int / unsign /FK(t_user)/not null</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -668,6 +664,10 @@
   </si>
   <si>
     <t>char(11) / not null -&gt; null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>date /</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1055,23 +1055,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2510,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2538,23 +2538,23 @@
     <row r="2" spans="5:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="5:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I3" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J3" s="53"/>
       <c r="L3" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M3" s="53"/>
     </row>
     <row r="4" spans="5:16" x14ac:dyDescent="0.3">
       <c r="I4" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M4" s="27" t="s">
         <v>11</v>
@@ -2563,207 +2563,207 @@
         <v>1</v>
       </c>
       <c r="P4" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="5:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I5" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5" s="26" t="str">
         <f>I4</f>
         <v>store_num</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O5" s="48">
         <v>2</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="5:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="51"/>
+      <c r="E6" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="55"/>
       <c r="I6" s="21" t="str">
         <f>E7</f>
         <v>cate_num</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O6" s="47">
         <v>3</v>
       </c>
       <c r="P6" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E7" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="L7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="5:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M8" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="5:16" x14ac:dyDescent="0.3">
       <c r="I9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="L9" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="5:16" x14ac:dyDescent="0.3">
       <c r="I10" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M10" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.3">
       <c r="I11" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.3">
       <c r="I12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="5:16" x14ac:dyDescent="0.3">
       <c r="I13" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="5:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H14" t="s">
-        <v>160</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14" s="55" t="s">
-        <v>51</v>
+        <v>159</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="51" t="s">
+        <v>50</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.3">
       <c r="I15" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="5:16" x14ac:dyDescent="0.3">
       <c r="H16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="5:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I17" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="5:20" x14ac:dyDescent="0.3">
@@ -2774,7 +2774,7 @@
       <c r="I19" s="35"/>
       <c r="J19" s="32"/>
       <c r="K19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="5:20" x14ac:dyDescent="0.3">
@@ -2784,39 +2784,39 @@
     <row r="25" spans="5:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="5:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E26" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26" s="53"/>
-      <c r="H26" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="I26" s="51"/>
+      <c r="H26" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="55"/>
       <c r="P26" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q26" s="53"/>
       <c r="S26" s="46">
         <v>0</v>
       </c>
       <c r="T26" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E27" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="L27" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M27" s="53"/>
       <c r="P27" s="33" t="str">
@@ -2824,21 +2824,21 @@
         <v>sub_num</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S27" s="48">
         <v>1</v>
       </c>
       <c r="T27" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E28" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>1</v>
@@ -2847,27 +2847,27 @@
         <v>5</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P28" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S28" s="48">
         <v>2</v>
       </c>
       <c r="T28" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E29" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>12</v>
@@ -2883,94 +2883,94 @@
         <v>user_num</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P29" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q29" s="28" t="s">
         <v>157</v>
-      </c>
-      <c r="Q29" s="28" t="s">
-        <v>158</v>
       </c>
       <c r="S29" s="48">
         <v>3</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E30" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L30" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S30" s="48">
         <v>4</v>
       </c>
       <c r="T30" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="5:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E31" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P31" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q31" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S31" s="47">
         <v>9</v>
       </c>
       <c r="T31" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="5:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E32" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="H32" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>7</v>
@@ -2979,7 +2979,7 @@
         <v>8</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
@@ -2987,25 +2987,25 @@
         <v>1</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3013,83 +3013,83 @@
         <v>2</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H34" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H35" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="L36" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="L37" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L38" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M38" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N38" t="s">
         <v>90</v>
       </c>
-      <c r="N38" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="39" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I39" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="J39" s="51"/>
+      <c r="I39" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="55"/>
       <c r="L39" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I40" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>11</v>
@@ -3109,19 +3109,19 @@
         <v>user_num</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L42" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="M42" s="51"/>
+        <v>24</v>
+      </c>
+      <c r="L42" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="M42" s="55"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I43" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L43" s="20" t="str">
         <f>H27</f>
@@ -3133,13 +3133,13 @@
     </row>
     <row r="44" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I44" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L44" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M44" s="13" t="s">
         <v>13</v>
@@ -3147,72 +3147,72 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="6:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="6:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F56" t="s">
-        <v>110</v>
-      </c>
-      <c r="I56" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="J56" s="51"/>
+        <v>109</v>
+      </c>
+      <c r="I56" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="J56" s="55"/>
     </row>
     <row r="57" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F57" s="50" t="s">
+      <c r="F57" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="55"/>
+      <c r="I57" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G57" s="51"/>
-      <c r="I57" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="J57" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G58" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="I58" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J58" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="59" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F59" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="I59" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="6:10" x14ac:dyDescent="0.3">
@@ -3248,17 +3248,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="I39:J39"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="I39:J39"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/DB_스키마_최종.xlsx
+++ b/db/DB_스키마_최종.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="169">
   <si>
     <t>int / auto / pk / unsign</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -668,6 +668,34 @@
   </si>
   <si>
     <t>date /</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_alarm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm_cheak</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm_num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm_message</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +761,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,6 +795,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,7 +938,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,16 +1095,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2510,8 +2547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2537,14 +2574,14 @@
   <sheetData>
     <row r="2" spans="5:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="5:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="L3" s="52" t="s">
+      <c r="J3" s="55"/>
+      <c r="L3" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="53"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="5:16" x14ac:dyDescent="0.3">
       <c r="I4" s="16" t="s">
@@ -2588,10 +2625,10 @@
       </c>
     </row>
     <row r="6" spans="5:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="53"/>
       <c r="I6" s="21" t="str">
         <f>E7</f>
         <v>cate_num</v>
@@ -2783,18 +2820,18 @@
     </row>
     <row r="25" spans="5:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="5:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="H26" s="54" t="s">
+      <c r="F26" s="55"/>
+      <c r="H26" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="I26" s="55"/>
-      <c r="P26" s="52" t="s">
+      <c r="I26" s="53"/>
+      <c r="P26" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="Q26" s="53"/>
+      <c r="Q26" s="55"/>
       <c r="S26" s="46">
         <v>0</v>
       </c>
@@ -2815,10 +2852,10 @@
       <c r="I27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="52" t="s">
+      <c r="L27" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="M27" s="53"/>
+      <c r="M27" s="55"/>
       <c r="P27" s="33" t="str">
         <f>L28</f>
         <v>sub_num</v>
@@ -2982,7 +3019,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="46">
         <v>1</v>
       </c>
@@ -3008,7 +3045,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="47">
         <v>2</v>
       </c>
@@ -3034,7 +3071,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H35" s="40" t="s">
         <v>21</v>
       </c>
@@ -3048,7 +3085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="L36" s="4" t="s">
         <v>80</v>
       </c>
@@ -3056,7 +3093,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="L37" s="12" t="s">
         <v>147</v>
       </c>
@@ -3064,7 +3101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L38" s="12" t="s">
         <v>37</v>
       </c>
@@ -3075,11 +3112,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I39" s="54" t="s">
+    <row r="39" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I39" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="55"/>
+      <c r="J39" s="53"/>
       <c r="L39" s="5" t="s">
         <v>148</v>
       </c>
@@ -3087,7 +3124,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I40" s="2" t="s">
         <v>141</v>
       </c>
@@ -3095,7 +3132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I41" s="24" t="s">
         <v>8</v>
       </c>
@@ -3103,7 +3140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I42" s="25" t="str">
         <f>H27</f>
         <v>user_num</v>
@@ -3111,12 +3148,12 @@
       <c r="J42" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L42" s="54" t="s">
+      <c r="L42" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="M42" s="55"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M42" s="53"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I43" s="4" t="s">
         <v>19</v>
       </c>
@@ -3131,7 +3168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I44" s="12" t="s">
         <v>142</v>
       </c>
@@ -3145,7 +3182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I45" s="4" t="s">
         <v>22</v>
       </c>
@@ -3153,33 +3190,77 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I46" s="5" t="s">
         <v>43</v>
       </c>
       <c r="J46" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="55" spans="6:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P46" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q46" s="56"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="P49" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="P50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="P51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="P52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="P53" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="P54" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I55" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="6:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F56" t="s">
         <v>109</v>
       </c>
-      <c r="I56" s="54" t="s">
+      <c r="I56" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="J56" s="55"/>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F57" s="54" t="s">
+      <c r="J56" s="53"/>
+    </row>
+    <row r="57" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F57" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="G57" s="55"/>
+      <c r="G57" s="53"/>
       <c r="I57" s="2" t="s">
         <v>62</v>
       </c>
@@ -3187,7 +3268,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F58" s="2" t="s">
         <v>62</v>
       </c>
@@ -3201,7 +3282,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F59" s="24" t="s">
         <v>64</v>
       </c>
@@ -3215,31 +3296,31 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F60" s="25"/>
       <c r="G60" s="8"/>
       <c r="I60" s="4"/>
       <c r="J60" s="8"/>
     </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F61" s="4"/>
       <c r="G61" s="8"/>
       <c r="I61" s="12"/>
       <c r="J61" s="8"/>
     </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F62" s="12"/>
       <c r="G62" s="8"/>
       <c r="I62" s="4"/>
       <c r="J62" s="8"/>
     </row>
-    <row r="63" spans="6:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F63" s="4"/>
       <c r="G63" s="8"/>
       <c r="I63" s="5"/>
       <c r="J63" s="9"/>
     </row>
-    <row r="64" spans="6:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F64" s="5"/>
       <c r="G64" s="9"/>
     </row>
@@ -3247,18 +3328,19 @@
       <c r="M69" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="I39:J39"/>
+  <mergeCells count="12">
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E26:F26"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="P46:Q46"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
